--- a/Model/Example_Output_File/HPGe_Parameters.xlsx
+++ b/Model/Example_Output_File/HPGe_Parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bve50\Desktop\HPGe Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bve50\Desktop\HPGe Project\Example_Output_File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19370" windowHeight="6725"/>
   </bookViews>
   <sheets>
     <sheet name="Intial Parameters" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>Material</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Maxiumum</t>
   </si>
   <si>
-    <t>Range (10%?)</t>
-  </si>
-  <si>
     <t>Coupled Parameters</t>
   </si>
   <si>
@@ -359,6 +356,33 @@
   </si>
   <si>
     <t>*** This is a parametric optimization for the model to match the experimental data, if we had more information about the internal features of the HPGe, then a full optimization could be made</t>
+  </si>
+  <si>
+    <t>WHAT WE ARE CHANGING:</t>
+  </si>
+  <si>
+    <t>Top Dead Layer</t>
+  </si>
+  <si>
+    <t>Ge Length</t>
+  </si>
+  <si>
+    <t>Side Dead Layer</t>
+  </si>
+  <si>
+    <t>Ge Density</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Range (10%)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,18 +421,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -533,11 +569,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,9 +639,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,6 +656,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,78 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -996,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1008,141 +1057,205 @@
     <col min="2" max="2" width="12.40625" customWidth="1"/>
     <col min="4" max="4" width="11.08984375" customWidth="1"/>
     <col min="5" max="5" width="26.40625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="9.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="68"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="38" t="s">
+      <c r="E3" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A4" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="46">
         <v>5.32</v>
       </c>
-      <c r="C4" s="39">
-        <f>B4-B4*0.1</f>
-        <v>4.7880000000000003</v>
-      </c>
-      <c r="D4" s="39">
-        <f>B4+B4*0.1</f>
-        <v>5.8520000000000003</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A5" s="41" t="s">
+      <c r="C4" s="47">
+        <v>5.32</v>
+      </c>
+      <c r="D4" s="47">
+        <v>5.35</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A5" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="40">
         <v>4.0199999999999996</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <f t="shared" ref="C5:C20" si="0">B5-B5*0.1</f>
         <v>3.6179999999999994</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <f t="shared" ref="D5:D20" si="1">B5+B5*0.1</f>
         <v>4.4219999999999997</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A6" s="43" t="s">
+      <c r="E5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="55">
+        <v>9</v>
+      </c>
+      <c r="K5" s="55">
+        <v>12.841993329999999</v>
+      </c>
+      <c r="L5" s="56">
+        <v>13.075993329999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="40">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="41">
         <f t="shared" si="0"/>
         <v>3.7350000000000003</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <f t="shared" si="1"/>
         <v>4.5650000000000004</v>
       </c>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="60"/>
+      <c r="I6" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="55">
+        <v>14</v>
+      </c>
+      <c r="K6" s="55">
+        <v>3.7939913299999999</v>
+      </c>
+      <c r="L6" s="56">
+        <v>5.4839993329999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="40">
         <v>0.13000000000000078</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="41">
         <f t="shared" si="0"/>
         <v>0.1170000000000007</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="41">
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A8" s="41" t="s">
+      <c r="E7" s="60"/>
+      <c r="I7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="58">
+        <v>4</v>
+      </c>
+      <c r="K7" s="58">
+        <v>3.92</v>
+      </c>
+      <c r="L7" s="59">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="43">
         <v>8.32</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="44">
         <f t="shared" si="0"/>
         <v>7.4880000000000004</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="44">
         <f t="shared" si="1"/>
         <v>9.152000000000001</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A9" s="43" t="s">
+      <c r="E8" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="49">
+        <v>5.32</v>
+      </c>
+      <c r="K8" s="49">
+        <v>5.32</v>
+      </c>
+      <c r="L8" s="50">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A9" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="43">
         <v>8.4499999999999993</v>
       </c>
       <c r="C9" s="44">
@@ -1153,251 +1266,251 @@
         <f t="shared" si="1"/>
         <v>9.2949999999999999</v>
       </c>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="46" t="s">
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A10" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="43">
         <v>0.13000000000000078</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="44">
         <f t="shared" si="0"/>
         <v>0.1170000000000007</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="44">
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A11" s="41" t="s">
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A11" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="52">
         <v>0.45</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="53">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="53">
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="46" t="s">
+      <c r="E11" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A12" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="52">
         <v>2.9999999999974492E-5</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="53">
         <f t="shared" si="0"/>
         <v>2.6999999999977041E-5</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="53">
         <f t="shared" si="1"/>
         <v>3.2999999999971942E-5</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A13" s="51" t="s">
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="31">
         <v>6.9499999999999993</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="32">
         <f t="shared" si="0"/>
         <v>6.254999999999999</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="32">
         <f t="shared" si="1"/>
         <v>7.6449999999999996</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="52" t="s">
+      <c r="E13" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A14" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="31">
         <v>3.0000000000640625E-5</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="32">
         <f t="shared" si="0"/>
         <v>2.7000000000576564E-5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="32">
         <f t="shared" si="1"/>
         <v>3.3000000000704687E-5</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="53" t="s">
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A15" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="31">
         <v>8.466700000013816E-4</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="32">
         <f t="shared" si="0"/>
         <v>7.6200300000124339E-4</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="32">
         <f t="shared" si="1"/>
         <v>9.313370000015198E-4</v>
       </c>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="53" t="s">
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A16" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="31">
         <v>1.0159999999999059E-2</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="32">
         <f t="shared" si="0"/>
         <v>9.1439999999991528E-3</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="32">
         <f t="shared" si="1"/>
         <v>1.1175999999998965E-2</v>
       </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="54" t="s">
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A17" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="31">
         <v>4.75</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="32">
         <f t="shared" si="0"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="32">
         <f t="shared" si="1"/>
         <v>5.2249999999999996</v>
       </c>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="54" t="s">
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="31">
         <v>0.36100667000000008</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="32">
         <f t="shared" si="0"/>
         <v>0.32490600300000005</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="32">
         <f t="shared" si="1"/>
         <v>0.39710733700000012</v>
       </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="54" t="s">
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="31">
         <v>0.44999999999999929</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="32">
         <f t="shared" si="0"/>
         <v>0.40499999999999936</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="32">
         <f t="shared" si="1"/>
         <v>0.49499999999999922</v>
       </c>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="53" t="s">
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A20" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="31">
         <v>0.85999999999999943</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="32">
         <f t="shared" si="0"/>
         <v>0.77399999999999947</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="32">
         <f t="shared" si="1"/>
         <v>0.9459999999999994</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A24" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="59"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="60"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A24" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A25" s="59"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A26" s="59"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="60"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1419,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1454,13 +1565,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="26">
+      <c r="A2" s="66">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="72">
         <v>8.41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1474,9 +1585,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1488,9 +1599,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1622,13 +1733,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="26">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="72">
         <v>1.42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1642,9 +1753,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1656,9 +1767,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1670,9 +1781,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1684,13 +1795,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="26">
+      <c r="A15" s="66">
         <v>10</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="72">
         <v>1.225E-3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1704,9 +1815,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1718,9 +1829,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1752,13 +1863,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="26">
+      <c r="A19" s="66">
         <v>12</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="72">
         <v>1.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1772,9 +1883,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1786,9 +1897,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1834,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1845,15 +1956,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
@@ -1883,7 +1994,7 @@
         <v>0.45</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="3">
@@ -1903,7 +2014,7 @@
         <v>0.45002999999999999</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="3">
@@ -1923,7 +2034,7 @@
         <v>11.588993329999999</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="3">
@@ -1943,7 +2054,7 @@
         <v>11.58902333</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="3">
@@ -1953,24 +2064,24 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
@@ -1998,7 +2109,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="3">
@@ -2018,7 +2129,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="3">
@@ -2038,7 +2149,7 @@
         <v>13.088993329999999</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="3">
@@ -2058,7 +2169,7 @@
         <v>12.95899333</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="3">
@@ -2078,7 +2189,7 @@
         <v>4.6389933299999999</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="3">
@@ -2092,7 +2203,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="3">
@@ -2102,24 +2213,24 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
@@ -2147,7 +2258,7 @@
         <v>13.089840000000001</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="3">
@@ -2167,7 +2278,7 @@
         <v>13.1</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="3">
@@ -2177,24 +2288,24 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
@@ -2222,7 +2333,7 @@
         <v>0.32</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="3">
@@ -2242,7 +2353,7 @@
         <v>4.226</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="3">
@@ -2262,7 +2373,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="3">
@@ -2282,7 +2393,7 @@
         <v>4.75</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="3">
@@ -2302,7 +2413,7 @@
         <v>13.45</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="3">
@@ -2322,7 +2433,7 @@
         <v>13.6</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>74</v>
       </c>
       <c r="F29" s="3">
@@ -2342,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="3">
@@ -2352,24 +2463,24 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
@@ -2397,7 +2508,7 @@
         <v>10.72899333</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F34" s="3">
@@ -2417,7 +2528,7 @@
         <v>4.4690000000000003</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="3">
@@ -2437,7 +2548,7 @@
         <v>9.8689933300000003</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>79</v>
       </c>
       <c r="F36" s="3">
@@ -2462,24 +2573,24 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
@@ -2507,7 +2618,7 @@
         <v>13.95</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="3">
@@ -2527,7 +2638,7 @@
         <v>25.4</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>83</v>
       </c>
       <c r="F42" s="3">
@@ -2547,7 +2658,7 @@
         <v>40.6</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>82</v>
       </c>
       <c r="F43" s="3">
@@ -2567,7 +2678,7 @@
         <v>50.76</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="3">
@@ -2587,7 +2698,7 @@
         <v>-10</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F45" s="3">
@@ -2607,7 +2718,7 @@
         <v>14.05</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="3">
@@ -2627,7 +2738,7 @@
         <v>14.21</v>
       </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="3">
@@ -2727,13 +2838,13 @@
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Model/Example_Output_File/HPGe_Parameters.xlsx
+++ b/Model/Example_Output_File/HPGe_Parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bve50\Desktop\HPGe Project\Example_Output_File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bve50\Desktop\GeDetector-Project\Model\Example_Output_File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,6 +771,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1305,17 +1319,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="79">
         <v>2.9999999999974492E-5</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="80">
         <f t="shared" si="0"/>
         <v>2.6999999999977041E-5</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="80">
         <f t="shared" si="1"/>
         <v>3.2999999999971942E-5</v>
       </c>
@@ -1341,17 +1355,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="79">
         <v>3.0000000000640625E-5</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="80">
         <f t="shared" si="0"/>
         <v>2.7000000000576564E-5</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="80">
         <f t="shared" si="1"/>
         <v>3.3000000000704687E-5</v>
       </c>
@@ -1375,34 +1389,34 @@
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="79">
         <v>1.0159999999999059E-2</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="80">
         <f t="shared" si="0"/>
         <v>9.1439999999991528E-3</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="80">
         <f t="shared" si="1"/>
         <v>1.1175999999998965E-2</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="79">
         <v>4.75</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="80">
         <f t="shared" si="0"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="80">
         <f t="shared" si="1"/>
         <v>5.2249999999999996</v>
       </c>
@@ -1923,18 +1937,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1945,7 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>

--- a/Model/Example_Output_File/HPGe_Parameters.xlsx
+++ b/Model/Example_Output_File/HPGe_Parameters.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19370" windowHeight="6725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19370" windowHeight="6725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Intial Parameters" sheetId="3" r:id="rId1"/>
     <sheet name="Material Properties" sheetId="1" r:id="rId2"/>
     <sheet name="Surface Cards" sheetId="2" r:id="rId3"/>
+    <sheet name="New Parameters" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
   <si>
     <t>Material</t>
   </si>
@@ -383,6 +384,72 @@
   </si>
   <si>
     <t>Range (10%)</t>
+  </si>
+  <si>
+    <t>Position 1 Value</t>
+  </si>
+  <si>
+    <t>New Parameter</t>
+  </si>
+  <si>
+    <t>Position 2</t>
+  </si>
+  <si>
+    <t>Position 3</t>
+  </si>
+  <si>
+    <t>Position 4</t>
+  </si>
+  <si>
+    <t>Position 5</t>
+  </si>
+  <si>
+    <t>New Paremeter</t>
+  </si>
+  <si>
+    <t>topDeadLayerMin</t>
+  </si>
+  <si>
+    <t>geLengthMin</t>
+  </si>
+  <si>
+    <t>sideDeadLayerMin</t>
+  </si>
+  <si>
+    <t>geDensityMin</t>
+  </si>
+  <si>
+    <t>innerSideDLMin</t>
+  </si>
+  <si>
+    <t>innerTopDLMin</t>
+  </si>
+  <si>
+    <t>kaptonLayMin</t>
+  </si>
+  <si>
+    <t>innerAlMin</t>
+  </si>
+  <si>
+    <t>endcapALMin</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Real Value</t>
+  </si>
+  <si>
+    <t>MCNP Value</t>
+  </si>
+  <si>
+    <t>Real Lower</t>
+  </si>
+  <si>
+    <t>Real Upper</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
   </si>
 </sst>
 </file>
@@ -406,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +516,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -590,11 +663,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,6 +840,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,14 +902,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1077,22 +1224,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="28"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.65">
@@ -1160,7 +1307,7 @@
         <f t="shared" ref="D5:D20" si="1">B5+B5*0.1</f>
         <v>4.4219999999999997</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="64" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="54" t="s">
@@ -1191,7 +1338,7 @@
         <f t="shared" si="1"/>
         <v>4.5650000000000004</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="64"/>
       <c r="I6" s="54" t="s">
         <v>112</v>
       </c>
@@ -1220,7 +1367,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="64"/>
       <c r="I7" s="57" t="s">
         <v>113</v>
       </c>
@@ -1249,7 +1396,7 @@
         <f t="shared" si="1"/>
         <v>9.152000000000001</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="64" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="48" t="s">
@@ -1280,7 +1427,7 @@
         <f t="shared" si="1"/>
         <v>9.2949999999999999</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A10" s="42" t="s">
@@ -1297,7 +1444,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A11" s="51" t="s">
@@ -1314,26 +1461,26 @@
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="64" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="61">
         <v>2.9999999999974492E-5</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="62">
         <f t="shared" si="0"/>
         <v>2.6999999999977041E-5</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="62">
         <f t="shared" si="1"/>
         <v>3.2999999999971942E-5</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A13" s="33" t="s">
@@ -1350,26 +1497,26 @@
         <f t="shared" si="1"/>
         <v>7.6449999999999996</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="64" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="61">
         <v>3.0000000000640625E-5</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="62">
         <f t="shared" si="0"/>
         <v>2.7000000000576564E-5</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="62">
         <f t="shared" si="1"/>
         <v>3.3000000000704687E-5</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A15" s="33" t="s">
@@ -1389,34 +1536,34 @@
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="61">
         <v>1.0159999999999059E-2</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="62">
         <f t="shared" si="0"/>
         <v>9.1439999999991528E-3</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="62">
         <f t="shared" si="1"/>
         <v>1.1175999999998965E-2</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="61">
         <v>4.75</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="62">
         <f t="shared" si="0"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="62">
         <f t="shared" si="1"/>
         <v>5.2249999999999996</v>
       </c>
@@ -1474,57 +1621,57 @@
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1579,13 +1726,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="66">
+      <c r="A2" s="70">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="76">
         <v>8.41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1599,9 +1746,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="67"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1613,9 +1760,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1747,13 +1894,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="66">
+      <c r="A11" s="70">
         <v>9</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="76">
         <v>1.42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1767,9 +1914,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1781,9 +1928,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="67"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="73"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1795,9 +1942,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1809,13 +1956,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="66">
+      <c r="A15" s="70">
         <v>10</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="76">
         <v>1.225E-3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1829,9 +1976,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="73"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1843,9 +1990,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="74"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1877,13 +2024,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="66">
+      <c r="A19" s="70">
         <v>12</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="76">
         <v>1.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1897,9 +2044,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1911,9 +2058,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1937,18 +2084,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1970,15 +2117,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
@@ -2087,15 +2234,15 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
@@ -2236,15 +2383,15 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
@@ -2311,15 +2458,15 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
@@ -2486,15 +2633,15 @@
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="81"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
@@ -2596,15 +2743,15 @@
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
@@ -2871,4 +3018,1315 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.40625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.2265625" customWidth="1"/>
+    <col min="7" max="15" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="9.953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A1" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="69"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="46">
+        <v>5.32</v>
+      </c>
+      <c r="C4" s="47">
+        <v>5.32</v>
+      </c>
+      <c r="D4" s="84">
+        <v>5.35</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="28">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="G4" s="25">
+        <f>F24-(F4-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="H4" s="28">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="I4" s="26">
+        <f>F24-(H4-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="J4">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="K4" s="90">
+        <f>F24-(J4-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="L4">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="M4" s="90">
+        <f>F24-(L4-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="N4">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="O4" s="90">
+        <f>F24-(N4-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="R4" s="37"/>
+      <c r="S4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="40">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C5" s="41">
+        <f>B5-B5*0.1</f>
+        <v>3.6179999999999994</v>
+      </c>
+      <c r="D5" s="85">
+        <f t="shared" ref="D5:D20" si="0">B5+B5*0.1</f>
+        <v>4.4219999999999997</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="28">
+        <v>4.12</v>
+      </c>
+      <c r="G5" s="25">
+        <f>F25-(F5-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>4.12</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" ref="I5:I6" si="1">F25-(H5-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.12</v>
+      </c>
+      <c r="K5" s="90">
+        <f t="shared" ref="K5:K6" si="2">F25-(J5-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.12</v>
+      </c>
+      <c r="M5" s="90">
+        <f t="shared" ref="M5:O6" si="3">F25-(L5-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="N5">
+        <v>4.12</v>
+      </c>
+      <c r="O5" s="90">
+        <f t="shared" ref="O5:O6" si="4">F25-(N5-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="R5" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="55">
+        <v>9</v>
+      </c>
+      <c r="T5" s="55">
+        <v>12.841993329999999</v>
+      </c>
+      <c r="U5" s="56">
+        <v>13.075993329999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A6" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="40">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C6" s="41">
+        <f t="shared" ref="C6:C20" si="5">B6-B6*0.1</f>
+        <v>3.7350000000000003</v>
+      </c>
+      <c r="D6" s="85">
+        <f t="shared" si="0"/>
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="G6" s="25">
+        <f>F26-(F6-G26)</f>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="H6" s="28">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="1"/>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="J6">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="K6" s="90">
+        <f t="shared" si="2"/>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="L6">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="M6" s="90">
+        <f t="shared" si="3"/>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="N6">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="O6" s="90">
+        <f t="shared" si="4"/>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="55">
+        <v>14</v>
+      </c>
+      <c r="T6" s="55">
+        <v>3.7939913299999999</v>
+      </c>
+      <c r="U6" s="56">
+        <v>5.4839993329999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="C7" s="41">
+        <f t="shared" si="5"/>
+        <v>0.1170000000000007</v>
+      </c>
+      <c r="D7" s="85">
+        <f t="shared" si="0"/>
+        <v>0.14300000000000085</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="102">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="G7" s="101">
+        <f>F27-(F7-G27)</f>
+        <v>1.5159999999998064E-2</v>
+      </c>
+      <c r="H7" s="102">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="I7" s="99">
+        <f>F27-ABS(H7-G27)</f>
+        <v>5.1600000000000534E-3</v>
+      </c>
+      <c r="J7" s="100">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="K7" s="99">
+        <f>F27-ABS(J7-G27)</f>
+        <v>5.1600000000000534E-3</v>
+      </c>
+      <c r="L7" s="100">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="M7" s="99">
+        <f>F27-ABS(L7-G27)</f>
+        <v>5.1600000000000534E-3</v>
+      </c>
+      <c r="N7" s="100">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="O7" s="99">
+        <f>F27-ABS(N7-G27)</f>
+        <v>5.1600000000000534E-3</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="58">
+        <v>4</v>
+      </c>
+      <c r="T7" s="58">
+        <v>3.92</v>
+      </c>
+      <c r="U7" s="59">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="43">
+        <v>8.32</v>
+      </c>
+      <c r="C8" s="44">
+        <f t="shared" si="5"/>
+        <v>7.4880000000000004</v>
+      </c>
+      <c r="D8" s="86">
+        <f t="shared" si="0"/>
+        <v>9.152000000000001</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="102">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="G8" s="101">
+        <f>F28-(G28-F8)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="H8" s="102">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="I8" s="99">
+        <f>F28-ABS(H8-G28)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="J8" s="100">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="K8" s="99">
+        <f>F28-ABS(J8-G28)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="L8" s="100">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="M8" s="99">
+        <f>F28-ABS(L8-G28)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="N8" s="100">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="O8" s="99">
+        <f>F28-ABS(N8-G28)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="49">
+        <v>5.32</v>
+      </c>
+      <c r="T8" s="49">
+        <v>5.32</v>
+      </c>
+      <c r="U8" s="50">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="43">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C9" s="44">
+        <f t="shared" si="5"/>
+        <v>7.6049999999999995</v>
+      </c>
+      <c r="D9" s="86">
+        <f t="shared" si="0"/>
+        <v>9.2949999999999999</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="G9" s="25">
+        <f>F29-(G29-F9)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="I9" s="26">
+        <f>F29-(G29-H9)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+      <c r="J9">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="K9" s="26">
+        <f>F29-(G29-J9)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+      <c r="L9">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="M9" s="26">
+        <f>F29-(G29-L9)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+      <c r="N9">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="O9" s="26">
+        <f>F29-(G29-N9)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A10" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="43">
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="C10" s="44">
+        <f t="shared" si="5"/>
+        <v>0.1170000000000007</v>
+      </c>
+      <c r="D10" s="86">
+        <f t="shared" si="0"/>
+        <v>0.14300000000000085</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="28">
+        <v>13.55</v>
+      </c>
+      <c r="G10" s="25">
+        <f>F30-(F10-G30)</f>
+        <v>4.9999999999998573E-2</v>
+      </c>
+      <c r="H10" s="28">
+        <v>13.55</v>
+      </c>
+      <c r="I10" s="26">
+        <f>F30-(H10-G30)</f>
+        <v>4.9999999999998573E-2</v>
+      </c>
+      <c r="J10">
+        <v>13.55</v>
+      </c>
+      <c r="K10" s="26">
+        <f>F30-(J10-G30)</f>
+        <v>4.9999999999998573E-2</v>
+      </c>
+      <c r="L10">
+        <v>13.55</v>
+      </c>
+      <c r="M10" s="26">
+        <f>F30-(L10-G30)</f>
+        <v>4.9999999999998573E-2</v>
+      </c>
+      <c r="N10">
+        <v>13.55</v>
+      </c>
+      <c r="O10" s="26">
+        <f>F30-(N10-G30)</f>
+        <v>4.9999999999998573E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A11" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="52">
+        <v>0.45</v>
+      </c>
+      <c r="C11" s="53">
+        <f t="shared" si="5"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D11" s="87">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="G11" s="25">
+        <f>F31-(F11-G31)</f>
+        <v>4.9999999999999462E-2</v>
+      </c>
+      <c r="H11" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="I11" s="26">
+        <f>F31-(H11-G31)</f>
+        <v>4.9999999999999462E-2</v>
+      </c>
+      <c r="J11">
+        <v>4.7</v>
+      </c>
+      <c r="K11" s="26">
+        <f t="shared" ref="K11:M12" si="6">F31-(J11-G31)</f>
+        <v>4.9999999999999462E-2</v>
+      </c>
+      <c r="L11">
+        <v>4.7</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" ref="M11:O12" si="7">F31-(L11-G31)</f>
+        <v>4.9999999999999462E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.7</v>
+      </c>
+      <c r="O11" s="26">
+        <f t="shared" ref="O11:O12" si="8">F31-(N11-G31)</f>
+        <v>4.9999999999999462E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="61">
+        <v>2.9999999999974492E-5</v>
+      </c>
+      <c r="C12" s="62">
+        <f t="shared" si="5"/>
+        <v>2.6999999999977041E-5</v>
+      </c>
+      <c r="D12" s="88">
+        <f t="shared" si="0"/>
+        <v>3.2999999999971942E-5</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="91">
+        <v>5.35</v>
+      </c>
+      <c r="G12" s="94">
+        <f>F32-(F12-G32)</f>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="H12" s="91">
+        <v>5.35</v>
+      </c>
+      <c r="I12" s="92">
+        <f>F32-(H12-G32)</f>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="J12">
+        <v>5.35</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="6"/>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="L12">
+        <v>5.35</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="7"/>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="N12">
+        <v>5.35</v>
+      </c>
+      <c r="O12" s="26">
+        <f t="shared" si="8"/>
+        <v>5.2900000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="31">
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="C13" s="32">
+        <f t="shared" si="5"/>
+        <v>6.254999999999999</v>
+      </c>
+      <c r="D13" s="83">
+        <f t="shared" si="0"/>
+        <v>7.6449999999999996</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="90"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A14" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="61">
+        <v>3.0000000000640625E-5</v>
+      </c>
+      <c r="C14" s="62">
+        <f t="shared" si="5"/>
+        <v>2.7000000000576564E-5</v>
+      </c>
+      <c r="D14" s="88">
+        <f t="shared" si="0"/>
+        <v>3.3000000000704687E-5</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A15" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="31">
+        <v>8.466700000013816E-4</v>
+      </c>
+      <c r="C15" s="32">
+        <f t="shared" si="5"/>
+        <v>7.6200300000124339E-4</v>
+      </c>
+      <c r="D15" s="83">
+        <f t="shared" si="0"/>
+        <v>9.313370000015198E-4</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A16" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="61">
+        <v>1.0159999999999059E-2</v>
+      </c>
+      <c r="C16" s="62">
+        <f t="shared" si="5"/>
+        <v>9.1439999999991528E-3</v>
+      </c>
+      <c r="D16" s="88">
+        <f t="shared" si="0"/>
+        <v>1.1175999999998965E-2</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A17" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="61">
+        <v>4.75</v>
+      </c>
+      <c r="C17" s="62">
+        <f t="shared" si="5"/>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="D17" s="88">
+        <f t="shared" si="0"/>
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A18" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0.36100667000000008</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="5"/>
+        <v>0.32490600300000005</v>
+      </c>
+      <c r="D18" s="83">
+        <f t="shared" si="0"/>
+        <v>0.39710733700000012</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A19" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="31">
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="5"/>
+        <v>0.40499999999999936</v>
+      </c>
+      <c r="D19" s="83">
+        <f t="shared" si="0"/>
+        <v>0.49499999999999922</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A20" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="31">
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="5"/>
+        <v>0.77399999999999947</v>
+      </c>
+      <c r="D20" s="83">
+        <f t="shared" si="0"/>
+        <v>0.9459999999999994</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A24" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24">
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="G24">
+        <v>12.95899333</v>
+      </c>
+      <c r="H24">
+        <v>12.35</v>
+      </c>
+      <c r="I24">
+        <v>13.075993329999999</v>
+      </c>
+      <c r="J24">
+        <f>F24-(I24-G24)</f>
+        <v>1.3000000000001677E-2</v>
+      </c>
+      <c r="K24">
+        <f>F24-(H24-G24)</f>
+        <v>0.73899333000000134</v>
+      </c>
+      <c r="L24">
+        <f>ABS(J24-K24)</f>
+        <v>0.72599332999999966</v>
+      </c>
+      <c r="M24">
+        <f>J24/F24*100</f>
+        <v>10.000000000001229</v>
+      </c>
+      <c r="N24">
+        <f>K24/F24*100</f>
+        <v>568.45640769230522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="G25">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H25">
+        <v>3.92</v>
+      </c>
+      <c r="I25">
+        <v>4.12</v>
+      </c>
+      <c r="J25">
+        <f>F25-(I25-G25)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="K25">
+        <f>F25-(H25-G25)</f>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L32" si="9">ABS(J25-K25)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:N32" si="10">J25/F25*100</f>
+        <v>23.07692307692313</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N32" si="11">K25/F25*100</f>
+        <v>176.9230769230762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>8.32</v>
+      </c>
+      <c r="G26">
+        <v>4.6389933299999999</v>
+      </c>
+      <c r="H26">
+        <v>3.7939913299999999</v>
+      </c>
+      <c r="I26">
+        <v>5.4839993329999999</v>
+      </c>
+      <c r="J26">
+        <f>F26-(I26-G26)</f>
+        <v>7.4749939970000003</v>
+      </c>
+      <c r="K26">
+        <f>F26-(H26-G26)</f>
+        <v>9.1650020000000012</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>1.6900080030000009</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>89.843677848557689</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>110.15627403846156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>1.0159999999999059E-2</v>
+      </c>
+      <c r="G27">
+        <v>13.1</v>
+      </c>
+      <c r="H27">
+        <v>13.2</v>
+      </c>
+      <c r="I27">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="J27">
+        <f>F27-ABS(G27-I27)</f>
+        <v>5.1600000000000534E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27" si="12">F27+ABS(G27-H27)</f>
+        <v>0.1101599999999987</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>0.10499999999999865</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="10"/>
+        <v>50.787401574808378</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>1084.2519685040247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28">
+        <v>2.9999999999974492E-5</v>
+      </c>
+      <c r="G28">
+        <v>11.58902333</v>
+      </c>
+      <c r="H28">
+        <v>11.58912333</v>
+      </c>
+      <c r="I28">
+        <v>11.588998999999999</v>
+      </c>
+      <c r="J28">
+        <f>F28-ABS(G28-I28)</f>
+        <v>5.6699999995135641E-6</v>
+      </c>
+      <c r="K28">
+        <f>F28+ABS(G28-H28)</f>
+        <v>1.2999999999974143E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>1.2433000000022787E-4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>18.899999998394616</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>433.33333333283991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29">
+        <v>2.9999999999974492E-5</v>
+      </c>
+      <c r="G29">
+        <v>0.45002999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.4501</v>
+      </c>
+      <c r="I29">
+        <v>0.45001000000000002</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="13">F29-ABS(G29-I29)</f>
+        <v>1.0000000000010001E-5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K32" si="14">F29+ABS(G29-H29)</f>
+        <v>9.9999999999988987E-5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>8.9999999999978986E-5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>33.333333333395011</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>333.33333333358001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30">
+        <v>0.15</v>
+      </c>
+      <c r="G30">
+        <v>13.45</v>
+      </c>
+      <c r="H30">
+        <v>13.35</v>
+      </c>
+      <c r="I30">
+        <v>13.55</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="13"/>
+        <v>4.9999999999998573E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="14"/>
+        <v>0.24999999999999964</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>33.333333333332384</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>166.66666666666643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31">
+        <v>0.15</v>
+      </c>
+      <c r="G31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H31">
+        <v>4.5</v>
+      </c>
+      <c r="I31">
+        <v>4.7</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999462E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="14"/>
+        <v>0.24999999999999964</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>33.333333333332973</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>166.66666666666643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32">
+        <v>5.32</v>
+      </c>
+      <c r="G32">
+        <v>5.32</v>
+      </c>
+      <c r="H32">
+        <v>5.32</v>
+      </c>
+      <c r="I32">
+        <v>5.35</v>
+      </c>
+      <c r="J32">
+        <f>F32-ABS(G32-I32)</f>
+        <v>5.2900000000000009</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="14"/>
+        <v>5.32</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>99.436090225563916</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.65">
+      <c r="J33">
+        <v>1.0160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.65">
+      <c r="J34" s="103">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.65">
+      <c r="J35" s="103">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="A24:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Model/Example_Output_File/HPGe_Parameters.xlsx
+++ b/Model/Example_Output_File/HPGe_Parameters.xlsx
@@ -473,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,14 +516,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -713,11 +707,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,60 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -914,18 +902,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,22 +1274,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="28"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.65">
@@ -1307,7 +1357,7 @@
         <f t="shared" ref="D5:D20" si="1">B5+B5*0.1</f>
         <v>4.4219999999999997</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="80" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="54" t="s">
@@ -1338,7 +1388,7 @@
         <f t="shared" si="1"/>
         <v>4.5650000000000004</v>
       </c>
-      <c r="E6" s="64"/>
+      <c r="E6" s="80"/>
       <c r="I6" s="54" t="s">
         <v>112</v>
       </c>
@@ -1367,7 +1417,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="80"/>
       <c r="I7" s="57" t="s">
         <v>113</v>
       </c>
@@ -1396,7 +1446,7 @@
         <f t="shared" si="1"/>
         <v>9.152000000000001</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="80" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="48" t="s">
@@ -1427,7 +1477,7 @@
         <f t="shared" si="1"/>
         <v>9.2949999999999999</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A10" s="42" t="s">
@@ -1444,7 +1494,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A11" s="51" t="s">
@@ -1461,7 +1511,7 @@
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="80" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1480,7 +1530,7 @@
         <f t="shared" si="1"/>
         <v>3.2999999999971942E-5</v>
       </c>
-      <c r="E12" s="64"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A13" s="33" t="s">
@@ -1497,7 +1547,7 @@
         <f t="shared" si="1"/>
         <v>7.6449999999999996</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="80" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1516,7 +1566,7 @@
         <f t="shared" si="1"/>
         <v>3.3000000000704687E-5</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A15" s="33" t="s">
@@ -1621,57 +1671,57 @@
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1726,13 +1776,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="70">
+      <c r="A2" s="86">
         <v>2</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="92">
         <v>8.41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1746,9 +1796,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="71"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1760,9 +1810,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="72"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1894,13 +1944,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="70">
+      <c r="A11" s="86">
         <v>9</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="92">
         <v>1.42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1914,9 +1964,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="71"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1928,9 +1978,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="71"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1942,9 +1992,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="72"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1956,13 +2006,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="70">
+      <c r="A15" s="86">
         <v>10</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="92">
         <v>1.225E-3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1976,9 +2026,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1990,9 +2040,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="72"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
@@ -2024,13 +2074,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="70">
+      <c r="A19" s="86">
         <v>12</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="92">
         <v>1.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2044,9 +2094,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="71"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="77"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2058,9 +2108,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="72"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2084,18 +2134,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2117,15 +2167,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
@@ -2234,15 +2284,15 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
@@ -2383,15 +2433,15 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
@@ -2458,15 +2508,15 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
@@ -2633,15 +2683,15 @@
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
@@ -2743,15 +2793,15 @@
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
@@ -3024,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -3042,12 +3092,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
@@ -3063,10 +3113,10 @@
     <row r="2" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="28"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A3" s="30" t="s">
@@ -3078,38 +3128,38 @@
       <c r="C3" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="64" t="s">
         <v>125</v>
       </c>
       <c r="R3" s="34" t="s">
@@ -3129,46 +3179,46 @@
       <c r="C4" s="47">
         <v>5.32</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="66">
         <v>5.35</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="28">
-        <v>13.075993329999999</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="99">
+        <v>12.35</v>
+      </c>
+      <c r="G4" s="102">
         <f>F24-(F4-G24)</f>
-        <v>1.3000000000001677E-2</v>
-      </c>
-      <c r="H4" s="28">
-        <v>13.075993329999999</v>
-      </c>
-      <c r="I4" s="26">
+        <v>0.73899333000000134</v>
+      </c>
+      <c r="H4" s="99">
+        <v>12.35</v>
+      </c>
+      <c r="I4" s="104">
         <f>F24-(H4-G24)</f>
-        <v>1.3000000000001677E-2</v>
-      </c>
-      <c r="J4">
-        <v>13.075993329999999</v>
-      </c>
-      <c r="K4" s="90">
+        <v>0.73899333000000134</v>
+      </c>
+      <c r="J4" s="99">
+        <v>12.35</v>
+      </c>
+      <c r="K4" s="108">
         <f>F24-(J4-G24)</f>
-        <v>1.3000000000001677E-2</v>
-      </c>
-      <c r="L4">
-        <v>13.075993329999999</v>
-      </c>
-      <c r="M4" s="90">
+        <v>0.73899333000000134</v>
+      </c>
+      <c r="L4" s="109">
+        <v>12.35</v>
+      </c>
+      <c r="M4" s="108">
         <f>F24-(L4-G24)</f>
-        <v>1.3000000000001677E-2</v>
-      </c>
-      <c r="N4">
-        <v>13.075993329999999</v>
-      </c>
-      <c r="O4" s="90">
+        <v>0.73899333000000134</v>
+      </c>
+      <c r="N4" s="109">
+        <v>12.35</v>
+      </c>
+      <c r="O4" s="110">
         <f>F24-(N4-G24)</f>
-        <v>1.3000000000001677E-2</v>
+        <v>0.73899333000000134</v>
       </c>
       <c r="R4" s="37"/>
       <c r="S4" s="29" t="s">
@@ -3192,47 +3242,47 @@
         <f>B5-B5*0.1</f>
         <v>3.6179999999999994</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="67">
         <f t="shared" ref="D5:D20" si="0">B5+B5*0.1</f>
         <v>4.4219999999999997</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="28">
-        <v>4.12</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="99">
+        <v>3.92</v>
+      </c>
+      <c r="G5" s="102">
         <f>F25-(F5-G25)</f>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="H5" s="28">
-        <v>4.12</v>
-      </c>
-      <c r="I5" s="26">
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="H5" s="99">
+        <v>3.92</v>
+      </c>
+      <c r="I5" s="104">
         <f t="shared" ref="I5:I6" si="1">F25-(H5-G25)</f>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="J5">
-        <v>4.12</v>
-      </c>
-      <c r="K5" s="90">
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="J5" s="99">
+        <v>3.92</v>
+      </c>
+      <c r="K5" s="108">
         <f t="shared" ref="K5:K6" si="2">F25-(J5-G25)</f>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="L5">
-        <v>4.12</v>
-      </c>
-      <c r="M5" s="90">
-        <f t="shared" ref="M5:O6" si="3">F25-(L5-G25)</f>
-        <v>3.0000000000000249E-2</v>
-      </c>
-      <c r="N5">
-        <v>4.12</v>
-      </c>
-      <c r="O5" s="90">
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="L5" s="109">
+        <v>2.8</v>
+      </c>
+      <c r="M5" s="108">
+        <f t="shared" ref="M5:M6" si="3">F25-(L5-G25)</f>
+        <v>1.3500000000000005</v>
+      </c>
+      <c r="N5" s="109">
+        <v>3.92</v>
+      </c>
+      <c r="O5" s="110">
         <f t="shared" ref="O5:O6" si="4">F25-(N5-G25)</f>
-        <v>3.0000000000000249E-2</v>
+        <v>0.23000000000000043</v>
       </c>
       <c r="R5" s="54" t="s">
         <v>111</v>
@@ -3258,45 +3308,45 @@
         <f t="shared" ref="C6:C20" si="5">B6-B6*0.1</f>
         <v>3.7350000000000003</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="67">
         <f t="shared" si="0"/>
         <v>4.5650000000000004</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="99">
+        <v>5.296220666</v>
+      </c>
+      <c r="G6" s="102">
+        <f>F26-(F6-G26)</f>
+        <v>7.6627726640000002</v>
+      </c>
+      <c r="H6" s="99">
         <v>5.4839993329999999</v>
       </c>
-      <c r="G6" s="25">
-        <f>F26-(F6-G26)</f>
-        <v>7.4749939970000003</v>
-      </c>
-      <c r="H6" s="28">
-        <v>5.4839993329999999</v>
-      </c>
-      <c r="I6" s="26">
+      <c r="I6" s="104">
         <f t="shared" si="1"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="99">
         <v>5.4839993329999999</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="108">
         <f t="shared" si="2"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="109">
         <v>5.4839993329999999</v>
       </c>
-      <c r="M6" s="90">
+      <c r="M6" s="108">
         <f t="shared" si="3"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="109">
         <v>5.4839993329999999</v>
       </c>
-      <c r="O6" s="90">
+      <c r="O6" s="110">
         <f t="shared" si="4"/>
         <v>7.4749939970000003</v>
       </c>
@@ -3324,47 +3374,47 @@
         <f t="shared" si="5"/>
         <v>0.1170000000000007</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="67">
         <f t="shared" si="0"/>
         <v>0.14300000000000085</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="102">
-        <v>13.095000000000001</v>
-      </c>
-      <c r="G7" s="101">
-        <f>F27-(F7-G27)</f>
-        <v>1.5159999999998064E-2</v>
-      </c>
-      <c r="H7" s="102">
-        <v>13.095000000000001</v>
-      </c>
-      <c r="I7" s="99">
-        <f>F27-ABS(H7-G27)</f>
-        <v>5.1600000000000534E-3</v>
-      </c>
-      <c r="J7" s="100">
-        <v>13.095000000000001</v>
-      </c>
-      <c r="K7" s="99">
-        <f>F27-ABS(J7-G27)</f>
-        <v>5.1600000000000534E-3</v>
-      </c>
-      <c r="L7" s="100">
-        <v>13.095000000000001</v>
-      </c>
-      <c r="M7" s="99">
-        <f>F27-ABS(L7-G27)</f>
-        <v>5.1600000000000534E-3</v>
-      </c>
-      <c r="N7" s="100">
-        <v>13.095000000000001</v>
-      </c>
-      <c r="O7" s="99">
-        <f>F27-ABS(N7-G27)</f>
-        <v>5.1600000000000534E-3</v>
+      <c r="F7" s="99">
+        <v>13.2</v>
+      </c>
+      <c r="G7" s="102">
+        <f>F27+(F7-G27)</f>
+        <v>0.1101599999999987</v>
+      </c>
+      <c r="H7" s="99">
+        <v>13.2</v>
+      </c>
+      <c r="I7" s="104">
+        <f>F27+(H7-G27)</f>
+        <v>0.1101599999999987</v>
+      </c>
+      <c r="J7" s="99">
+        <v>13.2</v>
+      </c>
+      <c r="K7" s="104">
+        <f>F27+ABS(J7-G27)</f>
+        <v>0.1101599999999987</v>
+      </c>
+      <c r="L7" s="109">
+        <v>13.147500000000001</v>
+      </c>
+      <c r="M7" s="104">
+        <f>F27+ABS(L7-G27)</f>
+        <v>5.7660000000000267E-2</v>
+      </c>
+      <c r="N7" s="109">
+        <v>13.2</v>
+      </c>
+      <c r="O7" s="111">
+        <f>F27+ABS(N7-G27)</f>
+        <v>0.1101599999999987</v>
       </c>
       <c r="R7" s="57" t="s">
         <v>113</v>
@@ -3390,47 +3440,47 @@
         <f t="shared" si="5"/>
         <v>7.4880000000000004</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="68">
         <f t="shared" si="0"/>
         <v>9.152000000000001</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="102">
-        <v>11.588998999999999</v>
-      </c>
-      <c r="G8" s="101">
+      <c r="F8" s="99">
+        <v>11.58912333</v>
+      </c>
+      <c r="G8" s="102">
         <f>F28-(G28-F8)</f>
-        <v>5.6699999995135641E-6</v>
-      </c>
-      <c r="H8" s="102">
-        <v>11.588998999999999</v>
-      </c>
-      <c r="I8" s="99">
-        <f>F28-ABS(H8-G28)</f>
-        <v>5.6699999995135641E-6</v>
-      </c>
-      <c r="J8" s="100">
-        <v>11.588998999999999</v>
-      </c>
-      <c r="K8" s="99">
-        <f>F28-ABS(J8-G28)</f>
-        <v>5.6699999995135641E-6</v>
-      </c>
-      <c r="L8" s="100">
-        <v>11.588998999999999</v>
-      </c>
-      <c r="M8" s="99">
-        <f>F28-ABS(L8-G28)</f>
-        <v>5.6699999995135641E-6</v>
-      </c>
-      <c r="N8" s="100">
-        <v>11.588998999999999</v>
-      </c>
-      <c r="O8" s="99">
-        <f>F28-ABS(N8-G28)</f>
-        <v>5.6699999995135641E-6</v>
+        <v>1.2999999999974143E-4</v>
+      </c>
+      <c r="H8" s="99">
+        <v>11.589054257800001</v>
+      </c>
+      <c r="I8" s="104">
+        <f>F28+(H8-G28)</f>
+        <v>6.0927800000998289E-5</v>
+      </c>
+      <c r="J8" s="99">
+        <v>11.589054257800001</v>
+      </c>
+      <c r="K8" s="104">
+        <f>F28+ABS(J8-G28)</f>
+        <v>6.0927800000998289E-5</v>
+      </c>
+      <c r="L8" s="109">
+        <v>11.5890957011</v>
+      </c>
+      <c r="M8" s="104">
+        <f>F28+ABS(L8-G28)</f>
+        <v>1.0237109999988725E-4</v>
+      </c>
+      <c r="N8" s="109">
+        <v>11.589054257800001</v>
+      </c>
+      <c r="O8" s="111">
+        <f>F28+ABS(N8-G28)</f>
+        <v>6.0927800000998289E-5</v>
       </c>
       <c r="R8" s="48" t="s">
         <v>114</v>
@@ -3456,47 +3506,47 @@
         <f t="shared" si="5"/>
         <v>7.6049999999999995</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="68">
         <f t="shared" si="0"/>
         <v>9.2949999999999999</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="28">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="F9" s="99">
+        <v>0.45001999999999998</v>
+      </c>
+      <c r="G9" s="102">
         <f>F29-(G29-F9)</f>
-        <v>1.0000000000010001E-5</v>
-      </c>
-      <c r="H9" s="28">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="I9" s="26">
+        <v>1.9999999999964491E-5</v>
+      </c>
+      <c r="H9" s="99">
+        <v>0.45006000000000002</v>
+      </c>
+      <c r="I9" s="104">
         <f>F29-(G29-H9)</f>
-        <v>1.0000000000010001E-5</v>
-      </c>
-      <c r="J9">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="K9" s="26">
+        <v>6.0000000000004494E-5</v>
+      </c>
+      <c r="J9" s="99">
+        <v>0.45007000000000003</v>
+      </c>
+      <c r="K9" s="104">
         <f>F29-(G29-J9)</f>
-        <v>1.0000000000010001E-5</v>
-      </c>
-      <c r="L9">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="M9" s="26">
+        <v>7.0000000000014495E-5</v>
+      </c>
+      <c r="L9" s="109">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M9" s="104">
         <f>F29-(G29-L9)</f>
-        <v>1.0000000000010001E-5</v>
-      </c>
-      <c r="N9">
-        <v>0.45001000000000002</v>
-      </c>
-      <c r="O9" s="26">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="N9" s="109">
+        <v>0.45007000000000003</v>
+      </c>
+      <c r="O9" s="111">
         <f>F29-(G29-N9)</f>
-        <v>1.0000000000010001E-5</v>
+        <v>7.0000000000014495E-5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.65">
@@ -3510,47 +3560,47 @@
         <f t="shared" si="5"/>
         <v>0.1170000000000007</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="68">
         <f t="shared" si="0"/>
         <v>0.14300000000000085</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="99">
+        <v>13.35</v>
+      </c>
+      <c r="G10" s="102">
+        <f>F30-(F10-G30)</f>
+        <v>0.24999999999999964</v>
+      </c>
+      <c r="H10" s="99">
+        <v>13.35</v>
+      </c>
+      <c r="I10" s="104">
+        <f>F30-(H10-G30)</f>
+        <v>0.24999999999999964</v>
+      </c>
+      <c r="J10" s="99">
+        <v>13.35</v>
+      </c>
+      <c r="K10" s="104">
+        <f>F30-(J10-G30)</f>
+        <v>0.24999999999999964</v>
+      </c>
+      <c r="L10" s="109">
         <v>13.55</v>
       </c>
-      <c r="G10" s="25">
-        <f>F30-(F10-G30)</f>
-        <v>4.9999999999998573E-2</v>
-      </c>
-      <c r="H10" s="28">
-        <v>13.55</v>
-      </c>
-      <c r="I10" s="26">
-        <f>F30-(H10-G30)</f>
-        <v>4.9999999999998573E-2</v>
-      </c>
-      <c r="J10">
-        <v>13.55</v>
-      </c>
-      <c r="K10" s="26">
-        <f>F30-(J10-G30)</f>
-        <v>4.9999999999998573E-2</v>
-      </c>
-      <c r="L10">
-        <v>13.55</v>
-      </c>
-      <c r="M10" s="26">
+      <c r="M10" s="104">
         <f>F30-(L10-G30)</f>
         <v>4.9999999999998573E-2</v>
       </c>
-      <c r="N10">
-        <v>13.55</v>
-      </c>
-      <c r="O10" s="26">
+      <c r="N10" s="109">
+        <v>13.35</v>
+      </c>
+      <c r="O10" s="111">
         <f>F30-(N10-G30)</f>
-        <v>4.9999999999998573E-2</v>
+        <v>0.24999999999999964</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.65">
@@ -3564,47 +3614,47 @@
         <f t="shared" si="5"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="69">
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="99">
         <v>4.7</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="102">
         <f>F31-(F11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="99">
         <v>4.7</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="104">
         <f>F31-(H11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="99">
         <v>4.7</v>
       </c>
-      <c r="K11" s="26">
-        <f t="shared" ref="K11:M12" si="6">F31-(J11-G31)</f>
+      <c r="K11" s="104">
+        <f t="shared" ref="K11:K12" si="6">F31-(J11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="L11">
-        <v>4.7</v>
-      </c>
-      <c r="M11" s="26">
-        <f t="shared" ref="M11:O12" si="7">F31-(L11-G31)</f>
-        <v>4.9999999999999462E-2</v>
-      </c>
-      <c r="N11">
-        <v>4.7</v>
-      </c>
-      <c r="O11" s="26">
+      <c r="L11" s="109">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="M11" s="104">
+        <f t="shared" ref="M11:M12" si="7">F31-(L11-G31)</f>
+        <v>0.26999999999999924</v>
+      </c>
+      <c r="N11" s="109">
+        <v>4.5</v>
+      </c>
+      <c r="O11" s="111">
         <f t="shared" ref="O11:O12" si="8">F31-(N11-G31)</f>
-        <v>4.9999999999999462E-2</v>
+        <v>0.24999999999999964</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
@@ -3618,47 +3668,47 @@
         <f t="shared" si="5"/>
         <v>2.6999999999977041E-5</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="70">
         <f t="shared" si="0"/>
         <v>3.2999999999971942E-5</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="100">
+        <v>5.32</v>
+      </c>
+      <c r="G12" s="103">
+        <f>F32-(F12-G32)</f>
+        <v>5.32</v>
+      </c>
+      <c r="H12" s="101">
+        <v>5.32</v>
+      </c>
+      <c r="I12" s="105">
+        <f>F32-(H12-G32)</f>
+        <v>5.32</v>
+      </c>
+      <c r="J12" s="99">
         <v>5.35</v>
       </c>
-      <c r="G12" s="94">
-        <f>F32-(F12-G32)</f>
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="H12" s="91">
+      <c r="K12" s="104">
+        <f>J12</f>
         <v>5.35</v>
       </c>
-      <c r="I12" s="92">
-        <f>F32-(H12-G32)</f>
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="J12">
-        <v>5.35</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" si="6"/>
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="L12">
-        <v>5.35</v>
-      </c>
-      <c r="M12" s="26">
-        <f t="shared" si="7"/>
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="N12">
-        <v>5.35</v>
-      </c>
-      <c r="O12" s="26">
-        <f t="shared" si="8"/>
-        <v>5.2900000000000009</v>
+      <c r="L12" s="109">
+        <v>5.32</v>
+      </c>
+      <c r="M12" s="104">
+        <f>L12</f>
+        <v>5.32</v>
+      </c>
+      <c r="N12" s="109">
+        <v>5.3425000000000002</v>
+      </c>
+      <c r="O12" s="111">
+        <f>N12</f>
+        <v>5.3425000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.65">
@@ -3672,23 +3722,23 @@
         <f t="shared" si="5"/>
         <v>6.254999999999999</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="65">
         <f t="shared" si="0"/>
         <v>7.6449999999999996</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="76" t="s">
         <v>126</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="90"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.65">
       <c r="A14" s="63" t="s">
@@ -3701,11 +3751,11 @@
         <f t="shared" si="5"/>
         <v>2.7000000000576564E-5</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="70">
         <f t="shared" si="0"/>
         <v>3.3000000000704687E-5</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="77" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="28"/>
@@ -3730,11 +3780,11 @@
         <f t="shared" si="5"/>
         <v>7.6200300000124339E-4</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="65">
         <f t="shared" si="0"/>
         <v>9.313370000015198E-4</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="77" t="s">
         <v>127</v>
       </c>
       <c r="F15" s="28"/>
@@ -3759,11 +3809,11 @@
         <f t="shared" si="5"/>
         <v>9.1439999999991528E-3</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="70">
         <f t="shared" si="0"/>
         <v>1.1175999999998965E-2</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="77" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="28"/>
@@ -3788,11 +3838,11 @@
         <f t="shared" si="5"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="70">
         <f t="shared" si="0"/>
         <v>5.2249999999999996</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="77" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="28"/>
@@ -3817,11 +3867,11 @@
         <f t="shared" si="5"/>
         <v>0.32490600300000005</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="65">
         <f t="shared" si="0"/>
         <v>0.39710733700000012</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="77" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="28"/>
@@ -3846,11 +3896,11 @@
         <f t="shared" si="5"/>
         <v>0.40499999999999936</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="65">
         <f t="shared" si="0"/>
         <v>0.49499999999999922</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="77" t="s">
         <v>134</v>
       </c>
       <c r="F19" s="28"/>
@@ -3875,11 +3925,11 @@
         <f t="shared" si="5"/>
         <v>0.77399999999999947</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="65">
         <f t="shared" si="0"/>
         <v>0.9459999999999994</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="77" t="s">
         <v>133</v>
       </c>
       <c r="F20" s="28"/>
@@ -3894,30 +3944,30 @@
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="98"/>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="92"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="98"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -3930,10 +3980,10 @@
       <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
       <c r="F23" t="s">
         <v>136</v>
       </c>
@@ -3954,12 +4004,12 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" t="s">
         <v>126</v>
       </c>
@@ -3997,10 +4047,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" t="s">
         <v>128</v>
       </c>
@@ -4029,7 +4079,7 @@
         <v>0.20000000000000018</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:N32" si="10">J25/F25*100</f>
+        <f t="shared" ref="M25:M32" si="10">J25/F25*100</f>
         <v>23.07692307692313</v>
       </c>
       <c r="N25">
@@ -4038,10 +4088,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
       <c r="E26" t="s">
         <v>127</v>
       </c>
@@ -4079,10 +4129,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
       <c r="E27" t="s">
         <v>132</v>
       </c>
@@ -4310,12 +4360,12 @@
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.65">
-      <c r="J34" s="103">
+      <c r="J34" s="79">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.65">
-      <c r="J35" s="103">
+      <c r="J35" s="79">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>

--- a/Model/Example_Output_File/HPGe_Parameters.xlsx
+++ b/Model/Example_Output_File/HPGe_Parameters.xlsx
@@ -517,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -729,37 +729,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,63 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -970,12 +887,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,22 +1246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="28"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.65">
@@ -1357,7 +1329,7 @@
         <f t="shared" ref="D5:D20" si="1">B5+B5*0.1</f>
         <v>4.4219999999999997</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="91" t="s">
         <v>105</v>
       </c>
       <c r="I5" s="54" t="s">
@@ -1388,7 +1360,7 @@
         <f t="shared" si="1"/>
         <v>4.5650000000000004</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="91"/>
       <c r="I6" s="54" t="s">
         <v>112</v>
       </c>
@@ -1417,7 +1389,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="91"/>
       <c r="I7" s="57" t="s">
         <v>113</v>
       </c>
@@ -1446,7 +1418,7 @@
         <f t="shared" si="1"/>
         <v>9.152000000000001</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="91" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="48" t="s">
@@ -1477,7 +1449,7 @@
         <f t="shared" si="1"/>
         <v>9.2949999999999999</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A10" s="42" t="s">
@@ -1494,7 +1466,7 @@
         <f t="shared" si="1"/>
         <v>0.14300000000000085</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A11" s="51" t="s">
@@ -1511,7 +1483,7 @@
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="91" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1530,7 +1502,7 @@
         <f t="shared" si="1"/>
         <v>3.2999999999971942E-5</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A13" s="33" t="s">
@@ -1547,7 +1519,7 @@
         <f t="shared" si="1"/>
         <v>7.6449999999999996</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="91" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1566,7 +1538,7 @@
         <f t="shared" si="1"/>
         <v>3.3000000000704687E-5</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="91"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A15" s="33" t="s">
@@ -1671,57 +1643,57 @@
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1776,13 +1748,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="86">
+      <c r="A2" s="97">
         <v>2</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="92">
+      <c r="C2" s="103">
         <v>8.41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1796,9 +1768,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="93"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1810,9 +1782,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="94"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1944,13 +1916,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="86">
+      <c r="A11" s="97">
         <v>9</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="103">
         <v>1.42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1964,9 +1936,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1978,9 +1950,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="87"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1992,9 +1964,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="94"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
@@ -2006,13 +1978,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="86">
+      <c r="A15" s="97">
         <v>10</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="103">
         <v>1.225E-3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2026,9 +1998,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="87"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
@@ -2040,9 +2012,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="88"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="94"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
@@ -2074,13 +2046,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="86">
+      <c r="A19" s="97">
         <v>12</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="103">
         <v>1.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2094,9 +2066,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="87"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2108,9 +2080,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="88"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="94"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2134,18 +2106,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2167,15 +2139,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
@@ -2284,15 +2256,15 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
@@ -2433,15 +2405,15 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="108"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
@@ -2508,15 +2480,15 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="108"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
@@ -2683,15 +2655,15 @@
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
@@ -2793,15 +2765,15 @@
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="97"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
@@ -3074,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -3092,12 +3064,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
@@ -3113,10 +3085,10 @@
     <row r="2" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="28"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A3" s="30" t="s">
@@ -3185,38 +3157,38 @@
       <c r="E4" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="80">
         <v>12.35</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="83">
         <f>F24-(F4-G24)</f>
         <v>0.73899333000000134</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="80">
         <v>12.35</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="85">
         <f>F24-(H4-G24)</f>
         <v>0.73899333000000134</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="80">
         <v>12.35</v>
       </c>
-      <c r="K4" s="108">
+      <c r="K4" s="87">
         <f>F24-(J4-G24)</f>
         <v>0.73899333000000134</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="88">
         <v>12.35</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="87">
         <f>F24-(L4-G24)</f>
         <v>0.73899333000000134</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="88">
         <v>12.35</v>
       </c>
-      <c r="O4" s="110">
+      <c r="O4" s="89">
         <f>F24-(N4-G24)</f>
         <v>0.73899333000000134</v>
       </c>
@@ -3249,38 +3221,38 @@
       <c r="E5" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="80">
         <v>3.92</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="83">
         <f>F25-(F5-G25)</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="80">
         <v>3.92</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="85">
         <f t="shared" ref="I5:I6" si="1">F25-(H5-G25)</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="80">
         <v>3.92</v>
       </c>
-      <c r="K5" s="108">
+      <c r="K5" s="87">
         <f t="shared" ref="K5:K6" si="2">F25-(J5-G25)</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="88">
         <v>2.8</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="87">
         <f t="shared" ref="M5:M6" si="3">F25-(L5-G25)</f>
         <v>1.3500000000000005</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="88">
         <v>3.92</v>
       </c>
-      <c r="O5" s="110">
+      <c r="O5" s="89">
         <f t="shared" ref="O5:O6" si="4">F25-(N5-G25)</f>
         <v>0.23000000000000043</v>
       </c>
@@ -3315,38 +3287,38 @@
       <c r="E6" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="80">
         <v>5.296220666</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="83">
         <f>F26-(F6-G26)</f>
         <v>7.6627726640000002</v>
       </c>
-      <c r="H6" s="99">
+      <c r="H6" s="80">
         <v>5.4839993329999999</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="80">
         <v>5.4839993329999999</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="87">
         <f t="shared" si="2"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="88">
         <v>5.4839993329999999</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="87">
         <f t="shared" si="3"/>
         <v>7.4749939970000003</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="88">
         <v>5.4839993329999999</v>
       </c>
-      <c r="O6" s="110">
+      <c r="O6" s="89">
         <f t="shared" si="4"/>
         <v>7.4749939970000003</v>
       </c>
@@ -3381,38 +3353,38 @@
       <c r="E7" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="80">
         <v>13.2</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="83">
         <f>F27+(F7-G27)</f>
         <v>0.1101599999999987</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="80">
         <v>13.2</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="85">
         <f>F27+(H7-G27)</f>
         <v>0.1101599999999987</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="80">
         <v>13.2</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="85">
         <f>F27+ABS(J7-G27)</f>
         <v>0.1101599999999987</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="88">
         <v>13.147500000000001</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="85">
         <f>F27+ABS(L7-G27)</f>
         <v>5.7660000000000267E-2</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="88">
         <v>13.2</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="90">
         <f>F27+ABS(N7-G27)</f>
         <v>0.1101599999999987</v>
       </c>
@@ -3447,38 +3419,38 @@
       <c r="E8" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="80">
         <v>11.58912333</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="83">
         <f>F28-(G28-F8)</f>
         <v>1.2999999999974143E-4</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="80">
         <v>11.589054257800001</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="85">
         <f>F28+(H8-G28)</f>
         <v>6.0927800000998289E-5</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="80">
         <v>11.589054257800001</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="85">
         <f>F28+ABS(J8-G28)</f>
         <v>6.0927800000998289E-5</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="88">
         <v>11.5890957011</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="85">
         <f>F28+ABS(L8-G28)</f>
         <v>1.0237109999988725E-4</v>
       </c>
-      <c r="N8" s="109">
+      <c r="N8" s="88">
         <v>11.589054257800001</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="90">
         <f>F28+ABS(N8-G28)</f>
         <v>6.0927800000998289E-5</v>
       </c>
@@ -3513,38 +3485,38 @@
       <c r="E9" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="80">
         <v>0.45001999999999998</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="83">
         <f>F29-(G29-F9)</f>
         <v>1.9999999999964491E-5</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="80">
         <v>0.45006000000000002</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="85">
         <f>F29-(G29-H9)</f>
         <v>6.0000000000004494E-5</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="80">
         <v>0.45007000000000003</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="85">
         <f>F29-(G29-J9)</f>
         <v>7.0000000000014495E-5</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="88">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="85">
         <f>F29-(G29-L9)</f>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="N9" s="109">
+      <c r="N9" s="88">
         <v>0.45007000000000003</v>
       </c>
-      <c r="O9" s="111">
+      <c r="O9" s="90">
         <f>F29-(G29-N9)</f>
         <v>7.0000000000014495E-5</v>
       </c>
@@ -3567,38 +3539,38 @@
       <c r="E10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="80">
         <v>13.35</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="83">
         <f>F30-(F10-G30)</f>
         <v>0.24999999999999964</v>
       </c>
-      <c r="H10" s="99">
+      <c r="H10" s="80">
         <v>13.35</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="85">
         <f>F30-(H10-G30)</f>
         <v>0.24999999999999964</v>
       </c>
-      <c r="J10" s="99">
+      <c r="J10" s="80">
         <v>13.35</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="85">
         <f>F30-(J10-G30)</f>
         <v>0.24999999999999964</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="88">
         <v>13.55</v>
       </c>
-      <c r="M10" s="104">
+      <c r="M10" s="85">
         <f>F30-(L10-G30)</f>
         <v>4.9999999999998573E-2</v>
       </c>
-      <c r="N10" s="109">
+      <c r="N10" s="88">
         <v>13.35</v>
       </c>
-      <c r="O10" s="111">
+      <c r="O10" s="90">
         <f>F30-(N10-G30)</f>
         <v>0.24999999999999964</v>
       </c>
@@ -3621,39 +3593,39 @@
       <c r="E11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="80">
         <v>4.7</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="83">
         <f>F31-(F11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="80">
         <v>4.7</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="85">
         <f>F31-(H11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="80">
         <v>4.7</v>
       </c>
-      <c r="K11" s="104">
-        <f t="shared" ref="K11:K12" si="6">F31-(J11-G31)</f>
+      <c r="K11" s="85">
+        <f t="shared" ref="K11" si="6">F31-(J11-G31)</f>
         <v>4.9999999999999462E-2</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="88">
         <v>4.4800000000000004</v>
       </c>
-      <c r="M11" s="104">
-        <f t="shared" ref="M11:M12" si="7">F31-(L11-G31)</f>
+      <c r="M11" s="85">
+        <f t="shared" ref="M11" si="7">F31-(L11-G31)</f>
         <v>0.26999999999999924</v>
       </c>
-      <c r="N11" s="109">
+      <c r="N11" s="88">
         <v>4.5</v>
       </c>
-      <c r="O11" s="111">
-        <f t="shared" ref="O11:O12" si="8">F31-(N11-G31)</f>
+      <c r="O11" s="90">
+        <f t="shared" ref="O11" si="8">F31-(N11-G31)</f>
         <v>0.24999999999999964</v>
       </c>
     </row>
@@ -3675,43 +3647,43 @@
       <c r="E12" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="81">
         <v>5.32</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="84">
         <f>F32-(F12-G32)</f>
         <v>5.32</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="82">
         <v>5.32</v>
       </c>
-      <c r="I12" s="105">
+      <c r="I12" s="86">
         <f>F32-(H12-G32)</f>
         <v>5.32</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="80">
         <v>5.35</v>
       </c>
-      <c r="K12" s="104">
+      <c r="K12" s="85">
         <f>J12</f>
         <v>5.35</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="88">
         <v>5.32</v>
       </c>
-      <c r="M12" s="104">
+      <c r="M12" s="85">
         <f>L12</f>
         <v>5.32</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="88">
         <v>5.3425000000000002</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="90">
         <f>N12</f>
         <v>5.3425000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A13" s="33" t="s">
         <v>93</v>
       </c>
@@ -3733,14 +3705,19 @@
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="J13" s="80">
+        <v>12.1136363636</v>
+      </c>
+      <c r="K13" s="87">
+        <f>F24-(J13-G24)</f>
+        <v>0.97535696640000147</v>
+      </c>
       <c r="L13" s="71"/>
       <c r="M13" s="72"/>
       <c r="N13" s="71"/>
       <c r="O13" s="72"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A14" s="63" t="s">
         <v>94</v>
       </c>
@@ -3762,8 +3739,13 @@
       <c r="G14" s="26"/>
       <c r="H14" s="28"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="80">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K14" s="87">
+        <f>F25-(J14-G25)</f>
+        <v>0.13000000000000078</v>
+      </c>
       <c r="L14" s="28"/>
       <c r="M14" s="26"/>
       <c r="N14" s="28"/>
@@ -3791,8 +3773,13 @@
       <c r="G15" s="26"/>
       <c r="H15" s="28"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="26"/>
+      <c r="J15" s="80">
+        <v>4.3573273309999996</v>
+      </c>
+      <c r="K15" s="87">
+        <f>F26-(J15-G26)</f>
+        <v>8.6016659990000015</v>
+      </c>
       <c r="L15" s="28"/>
       <c r="M15" s="26"/>
       <c r="N15" s="28"/>
@@ -3820,8 +3807,13 @@
       <c r="G16" s="26"/>
       <c r="H16" s="28"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="80">
+        <v>13.22</v>
+      </c>
+      <c r="K16" s="85">
+        <f>F27+ABS(J16-G27)</f>
+        <v>0.13016000000000005</v>
+      </c>
       <c r="L16" s="28"/>
       <c r="M16" s="26"/>
       <c r="N16" s="28"/>
@@ -3849,8 +3841,13 @@
       <c r="G17" s="26"/>
       <c r="H17" s="28"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="80">
+        <v>11.5894995556</v>
+      </c>
+      <c r="K17" s="85">
+        <f>F28+ABS(J17-G28)</f>
+        <v>5.062255999999099E-4</v>
+      </c>
       <c r="L17" s="28"/>
       <c r="M17" s="26"/>
       <c r="N17" s="28"/>
@@ -3878,8 +3875,13 @@
       <c r="G18" s="26"/>
       <c r="H18" s="28"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="80">
+        <v>0.45005000000000001</v>
+      </c>
+      <c r="K18" s="85">
+        <f>F29-(G29-J18)</f>
+        <v>4.9999999999994493E-5</v>
+      </c>
       <c r="L18" s="28"/>
       <c r="M18" s="26"/>
       <c r="N18" s="28"/>
@@ -3907,8 +3909,13 @@
       <c r="G19" s="26"/>
       <c r="H19" s="28"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="80">
+        <v>13.416666666699999</v>
+      </c>
+      <c r="K19" s="85">
+        <f>F30-(J19-G30)</f>
+        <v>0.18333333329999987</v>
+      </c>
       <c r="L19" s="28"/>
       <c r="M19" s="26"/>
       <c r="N19" s="28"/>
@@ -3936,20 +3943,25 @@
       <c r="G20" s="26"/>
       <c r="H20" s="28"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="80">
+        <v>4.5</v>
+      </c>
+      <c r="K20" s="85">
+        <f>F31-(J20-G31)</f>
+        <v>0.24999999999999964</v>
+      </c>
       <c r="L20" s="28"/>
       <c r="M20" s="26"/>
       <c r="N20" s="28"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="98"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="78" t="s">
         <v>129</v>
       </c>
@@ -3957,18 +3969,23 @@
       <c r="G21" s="74"/>
       <c r="H21" s="73"/>
       <c r="I21" s="74"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="J21" s="80">
+        <v>5.35</v>
+      </c>
+      <c r="K21" s="85">
+        <f>J21</f>
+        <v>5.35</v>
+      </c>
       <c r="L21" s="73"/>
       <c r="M21" s="74"/>
       <c r="N21" s="73"/>
       <c r="O21" s="74"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -3980,10 +3997,10 @@
       <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
       <c r="F23" t="s">
         <v>136</v>
       </c>
@@ -4004,12 +4021,12 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" t="s">
         <v>126</v>
       </c>
@@ -4047,10 +4064,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" t="s">
         <v>128</v>
       </c>
@@ -4088,10 +4105,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
       <c r="E26" t="s">
         <v>127</v>
       </c>
@@ -4129,10 +4146,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
       <c r="E27" t="s">
         <v>132</v>
       </c>
